--- a/xlsx/美国贸易代表办公室_intext.xlsx
+++ b/xlsx/美国贸易代表办公室_intext.xlsx
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国贸易代表办公室</t>
+    <t>美国政府</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国贸易代表办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E8%BE%A6%E4%BA%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國總統辦事機構</t>
+    <t>美国总统办事机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E8%B5%AB%E8%84%B1</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%B3%93%C2%B7%E8%89%BE%E6%96%AF%E4%B8%98</t>
   </si>
   <si>
-    <t>魯賓·艾斯丘</t>
+    <t>鲁宾·艾斯丘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bill_Brock</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E5%8B%9E%C2%B7%E7%89%B9%E6%9C%97%E6%99%AE</t>
   </si>
   <si>
-    <t>當勞·特朗普</t>
+    <t>当劳·特朗普</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stephen_Vaughn</t>
@@ -257,31 +257,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5301%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>特別301報告</t>
+    <t>特别301报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%88%E5%9B%9E%E5%90%88%E8%B2%BF%E6%98%93%E8%AB%87%E5%88%A4</t>
   </si>
   <si>
-    <t>多哈回合貿易談判</t>
+    <t>多哈回合贸易谈判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%BF%E6%98%93%E4%BB%A3%E8%A1%A8%E8%99%95</t>
